--- a/HW2/student.xlsx
+++ b/HW2/student.xlsx
@@ -447,13 +447,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" s="2">
       <c r="A1" s="3" t="inlineStr">
@@ -507,19 +507,19 @@
         </is>
       </c>
       <c r="C2" s="3" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>10.9</v>
+        <v>43.39</v>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
@@ -537,23 +537,23 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>10.9</v>
+        <v>56.52</v>
       </c>
       <c r="H3" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -567,19 +567,19 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>10.9</v>
+        <v>38.24</v>
       </c>
       <c r="H4" s="3" t="inlineStr">
         <is>
@@ -600,20 +600,20 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>10.9</v>
+        <v>63.48</v>
       </c>
       <c r="H5" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -627,19 +627,19 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="E6" s="3" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>10.9</v>
+        <v>45.5</v>
       </c>
       <c r="H6" s="3" t="inlineStr">
         <is>
@@ -657,23 +657,23 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>10.9</v>
+        <v>51.32</v>
       </c>
       <c r="H7" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>C+</t>
         </is>
       </c>
     </row>
@@ -687,23 +687,23 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F8" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>10.9</v>
+        <v>54.51000000000001</v>
       </c>
       <c r="H8" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
         </is>
       </c>
     </row>
@@ -717,23 +717,23 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="F9" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>10.9</v>
+        <v>62.14</v>
       </c>
       <c r="H9" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B+</t>
         </is>
       </c>
     </row>
@@ -747,23 +747,23 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>10.9</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="H10" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>A0</t>
         </is>
       </c>
     </row>
@@ -777,23 +777,158 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>10.9</v>
+        <v>53.66</v>
       </c>
       <c r="H11" s="3" t="inlineStr">
         <is>
-          <t>C0</t>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1" s="2">
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>sdfeef</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>78</v>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="n">
+        <v>52.32</v>
+      </c>
+      <c r="H12" s="3" t="inlineStr">
+        <is>
+          <t>B0</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1" s="2">
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>efsf</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>58.75</v>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>B+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12.75" customHeight="1" s="2">
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>xcvs</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>76</v>
+      </c>
+      <c r="E14" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>46.74</v>
+      </c>
+      <c r="H14" s="3" t="inlineStr">
+        <is>
+          <t>C+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1" s="2">
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>fgdg</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D15" s="3" t="n">
+        <v>98</v>
+      </c>
+      <c r="E15" s="3" t="n">
+        <v>57</v>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3" t="n">
+        <v>70.88</v>
+      </c>
+      <c r="H15" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1" s="2">
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>gjk</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" s="3" t="n">
+        <v>54</v>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3" t="n">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="H16" s="3" t="inlineStr">
+        <is>
+          <t>A+</t>
         </is>
       </c>
     </row>
